--- a/Good Recordings/8.6.Labels.xlsx
+++ b/Good Recordings/8.6.Labels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\Desktop\הנדסה ביו רפואית\שנה ד\סמסטר א\חישה רציפה\פרויקט 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8869785-1582-4626-AB43-F67A720C7699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E650A8-97A7-4A5D-B51A-6FA46E8EEBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01C897AA-F780-43AF-85BF-18FD37997587}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01C897AA-F780-43AF-85BF-18FD37997587}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -434,15 +434,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>428.8</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>861.6</v>
       </c>
@@ -475,29 +475,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1292</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1726</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>

--- a/Good Recordings/8.6.Labels.xlsx
+++ b/Good Recordings/8.6.Labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E650A8-97A7-4A5D-B51A-6FA46E8EEBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAA56E2-9B6F-493F-B72C-EE40A060D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01C897AA-F780-43AF-85BF-18FD37997587}"/>
   </bookViews>
@@ -434,15 +434,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>428.8</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>861.6</v>
       </c>
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1292</v>
       </c>
@@ -486,18 +486,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1726</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
